--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\tamle\projects\nachos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075250DE-A35F-436D-875F-A0FB63937438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4370B617-4AA3-43C6-8464-D740B99D8102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Xử lý exceptions</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Open, Close</t>
   </si>
   <si>
-    <t>Read</t>
-  </si>
-  <si>
     <t>Seek</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Read, Write</t>
   </si>
 </sst>
 </file>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -548,7 +548,9 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -557,14 +559,16 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -573,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -591,7 +595,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -600,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -609,7 +613,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -618,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2"/>
     </row>
@@ -627,7 +631,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2"/>
     </row>
@@ -636,7 +640,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -645,7 +649,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2"/>
     </row>
